--- a/Parsing_Table.xlsx
+++ b/Parsing_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHW\PycharmProjects\CompilerProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJG\Desktop\중앙대\3-1\컴파일러\team_2\Compiler_Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC3067-5E21-4D3A-9533-82B26106C8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4F4D8-20E6-4565-8D6A-9B2EC786C292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BA38FAD-FCA3-4B3F-AE7A-B8A8ECC9E364}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6BA38FAD-FCA3-4B3F-AE7A-B8A8ECC9E364}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="181">
   <si>
     <t>ϵ</t>
   </si>
@@ -1018,7 +1018,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>61</t>
+      <t>62</t>
     </r>
   </si>
   <si>
@@ -1032,312 +1032,3914 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>63</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>76</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>73</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>77</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>79</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum number of steps: </t>
+  </si>
+  <si>
+    <t>Trace</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>vtype id semi vtype id lparen vtype id ϵ rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>id semi vtype id lparen vtype id ϵ rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>semi vtype id lparen vtype id ϵ rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> semi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <t>vtype id lparen vtype id ϵ rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>id lparen vtype id ϵ rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>lparen vtype id ϵ rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <t>vtype id ϵ rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <t>id ϵ rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <t>ϵ rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ϵ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>39</t>
+    </r>
+  </si>
+  <si>
+    <t>rparen lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> MOREARGS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> MOREARGS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>37</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <t>lbrace ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+  </si>
+  <si>
+    <t>ϵ return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ϵ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>42</t>
+    </r>
+  </si>
+  <si>
+    <t>return boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <t>boolstr semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> boolstr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <t>semi rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> RHS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> RHS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>57</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> RHS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> semi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>62</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>63</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>67</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>68</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>72</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>74</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>27</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>76</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
+    <t>rbrace ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
       <t>31</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>78</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>30</t>
-    </r>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>70</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>73</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>77</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>80</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> RETURN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> RETURN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> vtype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ARG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rparen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> lbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> BLOCK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> RETURN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> rbrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>56</t>
+    </r>
+  </si>
+  <si>
+    <t>ϵ $</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> FDECL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> FDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> FDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> ϵ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> FDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> CODE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> FDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> CODE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> CODE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> VDECL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> CODE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
     </r>
   </si>
 </sst>
@@ -1394,21 +4996,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1444,32 +5040,456 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1487,6 +5507,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>47</xdr:col>
+          <xdr:colOff>579120</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AF7F1F-9662-6AE8-3C01-580DEFD7A368}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Control 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC8AF8-4C5A-2E53-2871-6D71AFD45D22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,139 +5918,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1478C563-0B8C-4B7D-B1BD-DFDBAF05725D}">
-  <dimension ref="A1:AN82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1478C563-0B8C-4B7D-B1BD-DFDBAF05725D}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AT81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A1" s="50"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="39"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1946,10 +6084,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="3">
+      <c r="Y2" s="3">
         <v>1</v>
       </c>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
@@ -1963,9 +6101,15 @@
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="39"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1995,21 +6139,21 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
+      <c r="X3" s="3">
+        <v>3</v>
+      </c>
       <c r="Y3" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="3">
         <v>1</v>
       </c>
+      <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="3">
+      <c r="AE3" s="3">
         <v>4</v>
       </c>
+      <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -2017,9 +6161,17 @@
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
+      <c r="AN3" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="39"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2049,10 +6201,10 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="3">
+      <c r="Z4" s="3">
         <v>8</v>
       </c>
+      <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -2065,9 +6217,15 @@
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="39"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2092,10 +6250,10 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
@@ -2111,9 +6269,15 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="39"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2143,21 +6307,21 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
+      <c r="X6" s="3">
+        <v>9</v>
+      </c>
       <c r="Y6" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="3">
         <v>1</v>
       </c>
+      <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="3">
+      <c r="AE6" s="3">
         <v>4</v>
       </c>
+      <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -2165,9 +6329,15 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="42"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2192,10 +6362,10 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -2211,9 +6381,19 @@
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
+      <c r="AN7" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="28"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2243,10 +6423,10 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="3">
+      <c r="Z8" s="3">
         <v>8</v>
       </c>
+      <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2259,9 +6439,23 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
+      <c r="AN8" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="30"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2307,9 +6501,25 @@
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
+      <c r="AN9" s="31">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="12"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2353,9 +6563,29 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
+      <c r="AN10" s="31">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2380,10 +6610,10 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
@@ -2399,9 +6629,23 @@
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
+      <c r="AN11" s="31">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="32"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2449,9 +6693,23 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
+      <c r="AN12" s="31">
+        <v>4</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="33"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -2503,9 +6761,23 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
+      <c r="AN13" s="31">
+        <v>5</v>
+      </c>
+      <c r="AO13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="33"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2546,19 +6818,19 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
+      <c r="AA14" s="3">
+        <v>15</v>
+      </c>
       <c r="AB14" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC14" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AD14" s="3">
-        <v>20</v>
-      </c>
-      <c r="AE14" s="3">
         <v>21</v>
       </c>
+      <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
@@ -2567,9 +6839,23 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
+      <c r="AN14" s="31">
+        <v>6</v>
+      </c>
+      <c r="AO14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="33"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2621,9 +6907,23 @@
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
+      <c r="AN15" s="31">
+        <v>7</v>
+      </c>
+      <c r="AO15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="24"/>
+      <c r="AT15" s="33"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2661,19 +6961,33 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="3">
+      <c r="AF16" s="3">
         <v>25</v>
       </c>
+      <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
+      <c r="AN16" s="31">
+        <v>8</v>
+      </c>
+      <c r="AO16" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="33"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2717,9 +7031,23 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
+      <c r="AN17" s="31">
+        <v>9</v>
+      </c>
+      <c r="AO17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="33"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2765,9 +7093,23 @@
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
+      <c r="AN18" s="31">
+        <v>10</v>
+      </c>
+      <c r="AO18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR18" s="21"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="33"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2811,9 +7153,23 @@
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
+      <c r="AN19" s="31">
+        <v>11</v>
+      </c>
+      <c r="AO19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="33"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2857,9 +7213,23 @@
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
+      <c r="AN20" s="31">
+        <v>12</v>
+      </c>
+      <c r="AO20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="24"/>
+      <c r="AT20" s="33"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2903,9 +7273,23 @@
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
+      <c r="AN21" s="31">
+        <v>13</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP21" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ21" s="9">
+        <v>37</v>
+      </c>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="33"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2955,9 +7339,23 @@
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
+      <c r="AN22" s="31">
+        <v>14</v>
+      </c>
+      <c r="AO22" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="33"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3007,9 +7405,23 @@
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
+      <c r="AN23" s="31">
+        <v>15</v>
+      </c>
+      <c r="AO23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP23" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ23" s="9">
+        <v>25</v>
+      </c>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="24"/>
+      <c r="AT23" s="33"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3045,16 +7457,16 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
+      <c r="AB24" s="3">
+        <v>30</v>
+      </c>
       <c r="AC24" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AD24" s="3">
-        <v>20</v>
-      </c>
-      <c r="AE24" s="3">
         <v>21</v>
       </c>
+      <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
@@ -3063,9 +7475,23 @@
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
+      <c r="AN24" s="31">
+        <v>16</v>
+      </c>
+      <c r="AO24" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="24"/>
+      <c r="AT24" s="33"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3115,9 +7541,23 @@
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
+      <c r="AN25" s="31">
+        <v>17</v>
+      </c>
+      <c r="AO25" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP25" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="33"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3167,9 +7607,23 @@
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
+      <c r="AN26" s="31">
+        <v>18</v>
+      </c>
+      <c r="AO26" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP26" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="33"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3213,9 +7667,23 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
+      <c r="AN27" s="31">
+        <v>19</v>
+      </c>
+      <c r="AO27" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR27" s="21"/>
+      <c r="AS27" s="24"/>
+      <c r="AT27" s="33"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3259,9 +7727,23 @@
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
+      <c r="AN28" s="31">
+        <v>20</v>
+      </c>
+      <c r="AO28" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP28" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ28" s="9">
+        <v>40</v>
+      </c>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="24"/>
+      <c r="AT28" s="33"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3305,9 +7787,23 @@
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
+      <c r="AN29" s="31">
+        <v>21</v>
+      </c>
+      <c r="AO29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP29" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR29" s="21"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="33"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3344,13 +7840,13 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="AC30" s="3">
+        <v>33</v>
+      </c>
       <c r="AD30" s="3">
-        <v>33</v>
-      </c>
-      <c r="AE30" s="3">
         <v>21</v>
       </c>
+      <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
@@ -3359,9 +7855,23 @@
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
-      <c r="AN30" s="4"/>
+      <c r="AN30" s="31">
+        <v>22</v>
+      </c>
+      <c r="AO30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP30" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR30" s="21"/>
+      <c r="AS30" s="24"/>
+      <c r="AT30" s="33"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3399,10 +7909,10 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="3">
+      <c r="AD31" s="3">
         <v>34</v>
       </c>
+      <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
@@ -3411,9 +7921,23 @@
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
-      <c r="AN31" s="4"/>
+      <c r="AN31" s="31">
+        <v>23</v>
+      </c>
+      <c r="AO31" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP31" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="24"/>
+      <c r="AT31" s="33"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3459,9 +7983,23 @@
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
-      <c r="AN32" s="4"/>
+      <c r="AN32" s="31">
+        <v>24</v>
+      </c>
+      <c r="AO32" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ32" s="9">
+        <v>57</v>
+      </c>
+      <c r="AR32" s="21"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="33"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -3505,9 +8043,23 @@
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
-      <c r="AN33" s="4"/>
+      <c r="AN33" s="31">
+        <v>25</v>
+      </c>
+      <c r="AO33" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP33" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ33" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR33" s="21"/>
+      <c r="AS33" s="24"/>
+      <c r="AT33" s="33"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -3546,18 +8098,32 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="3">
+      <c r="AG34" s="3">
         <v>37</v>
       </c>
+      <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4"/>
-      <c r="AN34" s="4"/>
+      <c r="AN34" s="31">
+        <v>26</v>
+      </c>
+      <c r="AO34" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP34" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ34" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="24"/>
+      <c r="AT34" s="33"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -3607,9 +8173,23 @@
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
+      <c r="AN35" s="31">
+        <v>27</v>
+      </c>
+      <c r="AO35" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ35" s="9">
+        <v>49</v>
+      </c>
+      <c r="AR35" s="21"/>
+      <c r="AS35" s="24"/>
+      <c r="AT35" s="33"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -3659,9 +8239,23 @@
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
+      <c r="AN36" s="31">
+        <v>28</v>
+      </c>
+      <c r="AO36" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="24"/>
+      <c r="AT36" s="33"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -3711,9 +8305,23 @@
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
+      <c r="AN37" s="31">
+        <v>29</v>
+      </c>
+      <c r="AO37" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="24"/>
+      <c r="AT37" s="33"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -3750,32 +8358,46 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
+      <c r="Y38" s="3">
+        <v>43</v>
+      </c>
       <c r="Z38" s="3">
-        <v>43</v>
-      </c>
-      <c r="AA38" s="3">
         <v>44</v>
       </c>
+      <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
+      <c r="AH38" s="3">
+        <v>40</v>
+      </c>
       <c r="AI38" s="3">
-        <v>40</v>
-      </c>
-      <c r="AJ38" s="3">
         <v>41</v>
       </c>
+      <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
+      <c r="AN38" s="31">
+        <v>30</v>
+      </c>
+      <c r="AO38" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP38" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ38" s="9">
+        <v>4</v>
+      </c>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="24"/>
+      <c r="AT38" s="33"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -3819,9 +8441,23 @@
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
+      <c r="AN39" s="31">
+        <v>31</v>
+      </c>
+      <c r="AO39" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="24"/>
+      <c r="AT39" s="33"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -3865,9 +8501,23 @@
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
+      <c r="AN40" s="31">
+        <v>32</v>
+      </c>
+      <c r="AO40" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="24"/>
+      <c r="AT40" s="33"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -3911,9 +8561,23 @@
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
+      <c r="AN41" s="31">
+        <v>33</v>
+      </c>
+      <c r="AO41" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ41" s="9">
+        <v>9</v>
+      </c>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="24"/>
+      <c r="AT41" s="33"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -3937,10 +8601,10 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4" t="s">
+      <c r="V42" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
@@ -3956,12 +8620,26 @@
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="3">
+      <c r="AM42" s="3">
         <v>49</v>
       </c>
+      <c r="AN42" s="31">
+        <v>34</v>
+      </c>
+      <c r="AO42" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR42" s="21"/>
+      <c r="AS42" s="24"/>
+      <c r="AT42" s="33"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -3998,32 +8676,46 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
+      <c r="Y43" s="3">
+        <v>43</v>
+      </c>
       <c r="Z43" s="3">
-        <v>43</v>
-      </c>
-      <c r="AA43" s="3">
         <v>44</v>
       </c>
+      <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
+      <c r="AH43" s="3">
+        <v>51</v>
+      </c>
       <c r="AI43" s="3">
-        <v>51</v>
-      </c>
-      <c r="AJ43" s="3">
         <v>41</v>
       </c>
+      <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
       <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
-      <c r="AN43" s="4"/>
+      <c r="AN43" s="31">
+        <v>35</v>
+      </c>
+      <c r="AO43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ43" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR43" s="21"/>
+      <c r="AS43" s="24"/>
+      <c r="AT43" s="33"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4049,10 +8741,10 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4" t="s">
+      <c r="V44" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
@@ -4069,9 +8761,23 @@
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4"/>
-      <c r="AN44" s="4"/>
+      <c r="AN44" s="31">
+        <v>36</v>
+      </c>
+      <c r="AO44" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ44" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="24"/>
+      <c r="AT44" s="33"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4123,9 +8829,15 @@
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
-      <c r="AN45" s="4"/>
+      <c r="AN45" s="34"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45" s="21"/>
+      <c r="AS45" s="24"/>
+      <c r="AT45" s="33"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4169,9 +8881,15 @@
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
-      <c r="AN46" s="4"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="6"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="6"/>
+      <c r="AR46" s="25"/>
+      <c r="AS46" s="26"/>
+      <c r="AT46" s="36"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4215,9 +8933,15 @@
       <c r="AK47" s="4"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
-      <c r="AN47" s="4"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="45"/>
+      <c r="AP47" s="45"/>
+      <c r="AQ47" s="45"/>
+      <c r="AR47" s="45"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="46"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -4261,9 +8985,15 @@
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
       <c r="AM48" s="4"/>
-      <c r="AN48" s="4"/>
+      <c r="AN48" s="43"/>
+      <c r="AO48" s="24"/>
+      <c r="AP48" s="24"/>
+      <c r="AQ48" s="24"/>
+      <c r="AR48" s="24"/>
+      <c r="AS48" s="24"/>
+      <c r="AT48" s="33"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -4307,9 +9037,15 @@
       <c r="AK49" s="4"/>
       <c r="AL49" s="4"/>
       <c r="AM49" s="4"/>
-      <c r="AN49" s="4"/>
+      <c r="AN49" s="43"/>
+      <c r="AO49" s="24"/>
+      <c r="AP49" s="24"/>
+      <c r="AQ49" s="24"/>
+      <c r="AR49" s="24"/>
+      <c r="AS49" s="24"/>
+      <c r="AT49" s="33"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -4353,9 +9089,15 @@
       <c r="AK50" s="4"/>
       <c r="AL50" s="4"/>
       <c r="AM50" s="4"/>
-      <c r="AN50" s="4"/>
+      <c r="AN50" s="43"/>
+      <c r="AO50" s="24"/>
+      <c r="AP50" s="24"/>
+      <c r="AQ50" s="24"/>
+      <c r="AR50" s="24"/>
+      <c r="AS50" s="24"/>
+      <c r="AT50" s="33"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -4399,9 +9141,15 @@
       <c r="AK51" s="4"/>
       <c r="AL51" s="4"/>
       <c r="AM51" s="4"/>
-      <c r="AN51" s="4"/>
+      <c r="AN51" s="43"/>
+      <c r="AO51" s="24"/>
+      <c r="AP51" s="24"/>
+      <c r="AQ51" s="24"/>
+      <c r="AR51" s="24"/>
+      <c r="AS51" s="24"/>
+      <c r="AT51" s="33"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -4442,19 +9190,19 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
+      <c r="AA52" s="3">
+        <v>57</v>
+      </c>
       <c r="AB52" s="3">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="AC52" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AD52" s="3">
-        <v>20</v>
-      </c>
-      <c r="AE52" s="3">
         <v>21</v>
       </c>
+      <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
@@ -4463,9 +9211,15 @@
       <c r="AK52" s="4"/>
       <c r="AL52" s="4"/>
       <c r="AM52" s="4"/>
-      <c r="AN52" s="4"/>
+      <c r="AN52" s="43"/>
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="24"/>
+      <c r="AQ52" s="24"/>
+      <c r="AR52" s="24"/>
+      <c r="AS52" s="24"/>
+      <c r="AT52" s="33"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -4491,10 +9245,10 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4" t="s">
+      <c r="V53" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
@@ -4511,9 +9265,15 @@
       <c r="AK53" s="4"/>
       <c r="AL53" s="4"/>
       <c r="AM53" s="4"/>
-      <c r="AN53" s="4"/>
+      <c r="AN53" s="43"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
+      <c r="AQ53" s="24"/>
+      <c r="AR53" s="24"/>
+      <c r="AS53" s="24"/>
+      <c r="AT53" s="33"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -4565,9 +9325,15 @@
       <c r="AK54" s="4"/>
       <c r="AL54" s="4"/>
       <c r="AM54" s="4"/>
-      <c r="AN54" s="4"/>
+      <c r="AN54" s="43"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
+      <c r="AQ54" s="24"/>
+      <c r="AR54" s="24"/>
+      <c r="AS54" s="24"/>
+      <c r="AT54" s="33"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -4578,7 +9344,9 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="I55" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -4605,15 +9373,21 @@
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="3">
+      <c r="AJ55" s="3">
         <v>58</v>
       </c>
+      <c r="AK55" s="4"/>
       <c r="AL55" s="4"/>
       <c r="AM55" s="4"/>
-      <c r="AN55" s="4"/>
+      <c r="AN55" s="43"/>
+      <c r="AO55" s="24"/>
+      <c r="AP55" s="24"/>
+      <c r="AQ55" s="24"/>
+      <c r="AR55" s="24"/>
+      <c r="AS55" s="24"/>
+      <c r="AT55" s="33"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -4624,7 +9398,9 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="I56" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -4651,15 +9427,21 @@
       <c r="AG56" s="4"/>
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
-      <c r="AJ56" s="4"/>
-      <c r="AK56" s="3">
-        <v>59</v>
-      </c>
+      <c r="AJ56" s="3">
+        <v>60</v>
+      </c>
+      <c r="AK56" s="4"/>
       <c r="AL56" s="4"/>
       <c r="AM56" s="4"/>
-      <c r="AN56" s="4"/>
+      <c r="AN56" s="43"/>
+      <c r="AO56" s="24"/>
+      <c r="AP56" s="24"/>
+      <c r="AQ56" s="24"/>
+      <c r="AR56" s="24"/>
+      <c r="AS56" s="24"/>
+      <c r="AT56" s="33"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -4698,18 +9480,24 @@
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="3">
-        <v>60</v>
-      </c>
+      <c r="AG57" s="3">
+        <v>61</v>
+      </c>
+      <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
       <c r="AL57" s="4"/>
       <c r="AM57" s="4"/>
-      <c r="AN57" s="4"/>
+      <c r="AN57" s="43"/>
+      <c r="AO57" s="24"/>
+      <c r="AP57" s="24"/>
+      <c r="AQ57" s="24"/>
+      <c r="AR57" s="24"/>
+      <c r="AS57" s="24"/>
+      <c r="AT57" s="33"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -4755,9 +9543,15 @@
       <c r="AK58" s="4"/>
       <c r="AL58" s="4"/>
       <c r="AM58" s="4"/>
-      <c r="AN58" s="4"/>
+      <c r="AN58" s="43"/>
+      <c r="AO58" s="24"/>
+      <c r="AP58" s="24"/>
+      <c r="AQ58" s="24"/>
+      <c r="AR58" s="24"/>
+      <c r="AS58" s="24"/>
+      <c r="AT58" s="33"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -4801,9 +9595,15 @@
       <c r="AK59" s="4"/>
       <c r="AL59" s="4"/>
       <c r="AM59" s="4"/>
-      <c r="AN59" s="4"/>
+      <c r="AN59" s="43"/>
+      <c r="AO59" s="24"/>
+      <c r="AP59" s="24"/>
+      <c r="AQ59" s="24"/>
+      <c r="AR59" s="24"/>
+      <c r="AS59" s="24"/>
+      <c r="AT59" s="33"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -4849,9 +9649,15 @@
       <c r="AK60" s="4"/>
       <c r="AL60" s="4"/>
       <c r="AM60" s="4"/>
-      <c r="AN60" s="4"/>
+      <c r="AN60" s="43"/>
+      <c r="AO60" s="24"/>
+      <c r="AP60" s="24"/>
+      <c r="AQ60" s="24"/>
+      <c r="AR60" s="24"/>
+      <c r="AS60" s="24"/>
+      <c r="AT60" s="33"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -4867,7 +9673,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -4876,7 +9682,7 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -4897,9 +9703,15 @@
       <c r="AK61" s="4"/>
       <c r="AL61" s="4"/>
       <c r="AM61" s="4"/>
-      <c r="AN61" s="4"/>
+      <c r="AN61" s="43"/>
+      <c r="AO61" s="24"/>
+      <c r="AP61" s="24"/>
+      <c r="AQ61" s="24"/>
+      <c r="AR61" s="24"/>
+      <c r="AS61" s="24"/>
+      <c r="AT61" s="33"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -4915,7 +9727,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -4923,7 +9735,9 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
+      <c r="T62" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
@@ -4943,9 +9757,15 @@
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
       <c r="AM62" s="4"/>
-      <c r="AN62" s="4"/>
+      <c r="AN62" s="43"/>
+      <c r="AO62" s="24"/>
+      <c r="AP62" s="24"/>
+      <c r="AQ62" s="24"/>
+      <c r="AR62" s="24"/>
+      <c r="AS62" s="24"/>
+      <c r="AT62" s="33"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -4960,12 +9780,12 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="M63" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
-      <c r="P63" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
@@ -4989,9 +9809,15 @@
       <c r="AK63" s="4"/>
       <c r="AL63" s="4"/>
       <c r="AM63" s="4"/>
-      <c r="AN63" s="4"/>
+      <c r="AN63" s="43"/>
+      <c r="AO63" s="24"/>
+      <c r="AP63" s="24"/>
+      <c r="AQ63" s="24"/>
+      <c r="AR63" s="24"/>
+      <c r="AS63" s="24"/>
+      <c r="AT63" s="33"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -5008,10 +9834,10 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
@@ -5035,9 +9861,15 @@
       <c r="AK64" s="4"/>
       <c r="AL64" s="4"/>
       <c r="AM64" s="4"/>
-      <c r="AN64" s="4"/>
+      <c r="AN64" s="43"/>
+      <c r="AO64" s="24"/>
+      <c r="AP64" s="24"/>
+      <c r="AQ64" s="24"/>
+      <c r="AR64" s="24"/>
+      <c r="AS64" s="24"/>
+      <c r="AT64" s="33"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -5048,15 +9880,15 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
+      <c r="O65" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -5079,13 +9911,17 @@
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
-      <c r="AL65" s="3">
-        <v>66</v>
-      </c>
+      <c r="AL65" s="4"/>
       <c r="AM65" s="4"/>
-      <c r="AN65" s="4"/>
+      <c r="AN65" s="43"/>
+      <c r="AO65" s="24"/>
+      <c r="AP65" s="24"/>
+      <c r="AQ65" s="24"/>
+      <c r="AR65" s="24"/>
+      <c r="AS65" s="24"/>
+      <c r="AT65" s="33"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -5096,15 +9932,15 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="I66" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
@@ -5126,24 +9962,26 @@
       <c r="AH66" s="4"/>
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
-      <c r="AK66" s="4"/>
+      <c r="AK66" s="3">
+        <v>67</v>
+      </c>
       <c r="AL66" s="4"/>
       <c r="AM66" s="4"/>
-      <c r="AN66" s="4"/>
+      <c r="AN66" s="43"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="24"/>
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="24"/>
+      <c r="AS66" s="24"/>
+      <c r="AT66" s="33"/>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -5154,27 +9992,21 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
+      <c r="O67" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
-      <c r="R67" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S67" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
-      <c r="Z67" s="3">
-        <v>43</v>
-      </c>
-      <c r="AA67" s="3">
-        <v>44</v>
-      </c>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -5182,24 +10014,32 @@
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
       <c r="AH67" s="4"/>
-      <c r="AI67" s="3">
-        <v>69</v>
-      </c>
-      <c r="AJ67" s="3">
-        <v>41</v>
-      </c>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
       <c r="AM67" s="4"/>
-      <c r="AN67" s="4"/>
+      <c r="AN67" s="43"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="24"/>
+      <c r="AQ67" s="24"/>
+      <c r="AR67" s="24"/>
+      <c r="AS67" s="24"/>
+      <c r="AT67" s="33"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -5213,17 +10053,23 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
+      <c r="R68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="T68" s="4"/>
-      <c r="U68" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
+      <c r="Y68" s="3">
+        <v>43</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>44</v>
+      </c>
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
@@ -5231,15 +10077,25 @@
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
-      <c r="AH68" s="4"/>
-      <c r="AI68" s="4"/>
+      <c r="AH68" s="3">
+        <v>70</v>
+      </c>
+      <c r="AI68" s="3">
+        <v>41</v>
+      </c>
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4"/>
       <c r="AM68" s="4"/>
-      <c r="AN68" s="4"/>
+      <c r="AN68" s="43"/>
+      <c r="AO68" s="24"/>
+      <c r="AP68" s="24"/>
+      <c r="AQ68" s="24"/>
+      <c r="AR68" s="24"/>
+      <c r="AS68" s="24"/>
+      <c r="AT68" s="33"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -5254,17 +10110,19 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="M69" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="T69" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -5283,21 +10141,21 @@
       <c r="AK69" s="4"/>
       <c r="AL69" s="4"/>
       <c r="AM69" s="4"/>
-      <c r="AN69" s="4"/>
+      <c r="AN69" s="43"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="24"/>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="24"/>
+      <c r="AT69" s="33"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -5306,29 +10164,25 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="M70" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="R70" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
-      <c r="Z70" s="3">
-        <v>43</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>44</v>
-      </c>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -5336,24 +10190,32 @@
       <c r="AF70" s="4"/>
       <c r="AG70" s="4"/>
       <c r="AH70" s="4"/>
-      <c r="AI70" s="3">
-        <v>71</v>
-      </c>
-      <c r="AJ70" s="3">
-        <v>41</v>
-      </c>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
       <c r="AM70" s="4"/>
-      <c r="AN70" s="4"/>
+      <c r="AN70" s="43"/>
+      <c r="AO70" s="24"/>
+      <c r="AP70" s="24"/>
+      <c r="AQ70" s="24"/>
+      <c r="AR70" s="24"/>
+      <c r="AS70" s="24"/>
+      <c r="AT70" s="33"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -5365,19 +10227,25 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
-      <c r="P71" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
+      <c r="R71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
+      <c r="Y71" s="3">
+        <v>43</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>44</v>
+      </c>
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
@@ -5385,15 +10253,25 @@
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
       <c r="AG71" s="4"/>
-      <c r="AH71" s="4"/>
-      <c r="AI71" s="4"/>
+      <c r="AH71" s="3">
+        <v>71</v>
+      </c>
+      <c r="AI71" s="3">
+        <v>41</v>
+      </c>
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4"/>
       <c r="AL71" s="4"/>
       <c r="AM71" s="4"/>
-      <c r="AN71" s="4"/>
+      <c r="AN71" s="43"/>
+      <c r="AO71" s="24"/>
+      <c r="AP71" s="24"/>
+      <c r="AQ71" s="24"/>
+      <c r="AR71" s="24"/>
+      <c r="AS71" s="24"/>
+      <c r="AT71" s="33"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -5404,16 +10282,16 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
+      <c r="P72" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -5437,9 +10315,15 @@
       <c r="AK72" s="4"/>
       <c r="AL72" s="4"/>
       <c r="AM72" s="4"/>
-      <c r="AN72" s="4"/>
+      <c r="AN72" s="43"/>
+      <c r="AO72" s="24"/>
+      <c r="AP72" s="24"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="24"/>
+      <c r="AS72" s="24"/>
+      <c r="AT72" s="33"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -5458,7 +10342,7 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
@@ -5483,14 +10367,20 @@
       <c r="AK73" s="4"/>
       <c r="AL73" s="4"/>
       <c r="AM73" s="4"/>
-      <c r="AN73" s="4"/>
+      <c r="AN73" s="43"/>
+      <c r="AO73" s="24"/>
+      <c r="AP73" s="24"/>
+      <c r="AQ73" s="24"/>
+      <c r="AR73" s="24"/>
+      <c r="AS73" s="24"/>
+      <c r="AT73" s="33"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5510,10 +10400,10 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="U74" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
@@ -5529,19 +10419,31 @@
       <c r="AI74" s="4"/>
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
-      <c r="AL74" s="4"/>
-      <c r="AM74" s="3">
-        <v>75</v>
-      </c>
-      <c r="AN74" s="4"/>
+      <c r="AL74" s="3">
+        <v>74</v>
+      </c>
+      <c r="AM74" s="4"/>
+      <c r="AN74" s="43"/>
+      <c r="AO74" s="24"/>
+      <c r="AP74" s="24"/>
+      <c r="AQ74" s="24"/>
+      <c r="AR74" s="24"/>
+      <c r="AS74" s="24"/>
+      <c r="AT74" s="33"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -5550,18 +10452,18 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="R75" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
@@ -5581,20 +10483,26 @@
       <c r="AK75" s="4"/>
       <c r="AL75" s="4"/>
       <c r="AM75" s="4"/>
-      <c r="AN75" s="4"/>
+      <c r="AN75" s="43"/>
+      <c r="AO75" s="24"/>
+      <c r="AP75" s="24"/>
+      <c r="AQ75" s="24"/>
+      <c r="AR75" s="24"/>
+      <c r="AS75" s="24"/>
+      <c r="AT75" s="33"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -5610,10 +10518,10 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S76" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
@@ -5635,21 +10543,21 @@
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
       <c r="AM76" s="4"/>
-      <c r="AN76" s="4"/>
+      <c r="AN76" s="43"/>
+      <c r="AO76" s="24"/>
+      <c r="AP76" s="24"/>
+      <c r="AQ76" s="24"/>
+      <c r="AR76" s="24"/>
+      <c r="AS76" s="24"/>
+      <c r="AT76" s="33"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -5660,15 +10568,13 @@
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
+      <c r="O77" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
-      <c r="R77" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S77" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
@@ -5689,15 +10595,27 @@
       <c r="AK77" s="4"/>
       <c r="AL77" s="4"/>
       <c r="AM77" s="4"/>
-      <c r="AN77" s="4"/>
+      <c r="AN77" s="43"/>
+      <c r="AO77" s="24"/>
+      <c r="AP77" s="24"/>
+      <c r="AQ77" s="24"/>
+      <c r="AR77" s="24"/>
+      <c r="AS77" s="24"/>
+      <c r="AT77" s="33"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -5708,13 +10626,15 @@
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
-      <c r="O78" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
+      <c r="R78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
@@ -5735,20 +10655,26 @@
       <c r="AK78" s="4"/>
       <c r="AL78" s="4"/>
       <c r="AM78" s="4"/>
-      <c r="AN78" s="4"/>
+      <c r="AN78" s="43"/>
+      <c r="AO78" s="24"/>
+      <c r="AP78" s="24"/>
+      <c r="AQ78" s="24"/>
+      <c r="AR78" s="24"/>
+      <c r="AS78" s="24"/>
+      <c r="AT78" s="33"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -5764,18 +10690,22 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="S79" s="4" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
+      <c r="Y79" s="3">
+        <v>43</v>
+      </c>
+      <c r="Z79" s="3">
+        <v>44</v>
+      </c>
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
@@ -5783,27 +10713,31 @@
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
       <c r="AG79" s="4"/>
-      <c r="AH79" s="4"/>
-      <c r="AI79" s="4"/>
+      <c r="AH79" s="3">
+        <v>78</v>
+      </c>
+      <c r="AI79" s="3">
+        <v>41</v>
+      </c>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
       <c r="AM79" s="4"/>
-      <c r="AN79" s="4"/>
+      <c r="AN79" s="43"/>
+      <c r="AO79" s="24"/>
+      <c r="AP79" s="24"/>
+      <c r="AQ79" s="24"/>
+      <c r="AR79" s="24"/>
+      <c r="AS79" s="24"/>
+      <c r="AT79" s="33"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -5815,26 +10749,20 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
+      <c r="P80" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="Q80" s="4"/>
-      <c r="R80" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S80" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
-      <c r="Z80" s="3">
-        <v>43</v>
-      </c>
-      <c r="AA80" s="3">
-        <v>44</v>
-      </c>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -5842,24 +10770,32 @@
       <c r="AF80" s="4"/>
       <c r="AG80" s="4"/>
       <c r="AH80" s="4"/>
-      <c r="AI80" s="3">
-        <v>79</v>
-      </c>
-      <c r="AJ80" s="3">
-        <v>41</v>
-      </c>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
       <c r="AM80" s="4"/>
-      <c r="AN80" s="4"/>
+      <c r="AN80" s="43"/>
+      <c r="AO80" s="24"/>
+      <c r="AP80" s="24"/>
+      <c r="AQ80" s="24"/>
+      <c r="AR80" s="24"/>
+      <c r="AS80" s="24"/>
+      <c r="AT80" s="33"/>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -5871,12 +10807,14 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
+      <c r="R81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
@@ -5897,64 +10835,152 @@
       <c r="AK81" s="4"/>
       <c r="AL81" s="4"/>
       <c r="AM81" s="4"/>
-      <c r="AN81" s="4"/>
-    </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>80</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="S82" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
-      <c r="AG82" s="4"/>
-      <c r="AH82" s="4"/>
-      <c r="AI82" s="4"/>
-      <c r="AJ82" s="4"/>
-      <c r="AK82" s="4"/>
-      <c r="AL82" s="4"/>
-      <c r="AM82" s="4"/>
-      <c r="AN82" s="4"/>
+      <c r="AN81" s="47"/>
+      <c r="AO81" s="48"/>
+      <c r="AP81" s="48"/>
+      <c r="AQ81" s="48"/>
+      <c r="AR81" s="48"/>
+      <c r="AS81" s="48"/>
+      <c r="AT81" s="49"/>
     </row>
   </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="AN80:AT80"/>
+    <mergeCell ref="AN81:AT81"/>
+    <mergeCell ref="AN74:AT74"/>
+    <mergeCell ref="AN75:AT75"/>
+    <mergeCell ref="AN76:AT76"/>
+    <mergeCell ref="AN77:AT77"/>
+    <mergeCell ref="AN78:AT78"/>
+    <mergeCell ref="AN79:AT79"/>
+    <mergeCell ref="AN68:AT68"/>
+    <mergeCell ref="AN69:AT69"/>
+    <mergeCell ref="AN70:AT70"/>
+    <mergeCell ref="AN71:AT71"/>
+    <mergeCell ref="AN72:AT72"/>
+    <mergeCell ref="AN73:AT73"/>
+    <mergeCell ref="AN62:AT62"/>
+    <mergeCell ref="AN63:AT63"/>
+    <mergeCell ref="AN64:AT64"/>
+    <mergeCell ref="AN65:AT65"/>
+    <mergeCell ref="AN66:AT66"/>
+    <mergeCell ref="AN67:AT67"/>
+    <mergeCell ref="AN56:AT56"/>
+    <mergeCell ref="AN57:AT57"/>
+    <mergeCell ref="AN58:AT58"/>
+    <mergeCell ref="AN59:AT59"/>
+    <mergeCell ref="AN60:AT60"/>
+    <mergeCell ref="AN61:AT61"/>
+    <mergeCell ref="AN50:AT50"/>
+    <mergeCell ref="AN51:AT51"/>
+    <mergeCell ref="AN52:AT52"/>
+    <mergeCell ref="AN53:AT53"/>
+    <mergeCell ref="AN54:AT54"/>
+    <mergeCell ref="AN55:AT55"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AN6:AT6"/>
+    <mergeCell ref="AN47:AT47"/>
+    <mergeCell ref="AN48:AT48"/>
+    <mergeCell ref="AN49:AT49"/>
+    <mergeCell ref="AR41:AT41"/>
+    <mergeCell ref="AR42:AT42"/>
+    <mergeCell ref="AR43:AT43"/>
+    <mergeCell ref="AR44:AT44"/>
+    <mergeCell ref="AR45:AT45"/>
+    <mergeCell ref="AR46:AT46"/>
+    <mergeCell ref="AR35:AT35"/>
+    <mergeCell ref="AR36:AT36"/>
+    <mergeCell ref="AR37:AT37"/>
+    <mergeCell ref="AR38:AT38"/>
+    <mergeCell ref="AR39:AT39"/>
+    <mergeCell ref="AR40:AT40"/>
+    <mergeCell ref="AR29:AT29"/>
+    <mergeCell ref="AR30:AT30"/>
+    <mergeCell ref="AR31:AT31"/>
+    <mergeCell ref="AR32:AT32"/>
+    <mergeCell ref="AR33:AT33"/>
+    <mergeCell ref="AR34:AT34"/>
+    <mergeCell ref="AR23:AT23"/>
+    <mergeCell ref="AR24:AT24"/>
+    <mergeCell ref="AR25:AT25"/>
+    <mergeCell ref="AR26:AT26"/>
+    <mergeCell ref="AR27:AT27"/>
+    <mergeCell ref="AR28:AT28"/>
+    <mergeCell ref="AR17:AT17"/>
+    <mergeCell ref="AR18:AT18"/>
+    <mergeCell ref="AR19:AT19"/>
+    <mergeCell ref="AR20:AT20"/>
+    <mergeCell ref="AR21:AT21"/>
+    <mergeCell ref="AR22:AT22"/>
+    <mergeCell ref="AR11:AT11"/>
+    <mergeCell ref="AR12:AT12"/>
+    <mergeCell ref="AR13:AT13"/>
+    <mergeCell ref="AR14:AT14"/>
+    <mergeCell ref="AR15:AT15"/>
+    <mergeCell ref="AR16:AT16"/>
+    <mergeCell ref="AR9:AT9"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="AR7:AT8"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AN3:AT3"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId3" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId3" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId5" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>47</xdr:col>
+                <xdr:colOff>579120</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId5" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>